--- a/数据整理/stocks/港股/00285-比亚迪电子.xlsx
+++ b/数据整理/stocks/港股/00285-比亚迪电子.xlsx
@@ -451,575 +451,775 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>009318</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>220.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.3114</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005794</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9503</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009319</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1873</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9356</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9253</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>010126</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>平安价值成长混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>96.07</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>3.49</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8299</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007340</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7962</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2191</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>67.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>96.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010127</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>平安价值成长混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>96.07</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007341</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161620</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>71.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010237</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>安信创新先锋混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>67.81</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>3.05</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010238</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>安信创新先锋混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>67.81</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006205</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>96.70</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>8.57</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002332</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇丰晋信沪港深股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>6.43</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002333</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>汇丰晋信沪港深股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>6.43</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004266</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>84.76</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004314</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>91.60</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004315</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>91.60</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>010754</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>84.76</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005504</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>汇添富沪港深大盘价值混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>91.36</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>8.16</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005794</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>银华心怡灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>94.16</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007291</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>汇丰晋信港股通双核策略混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>7.53</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007340</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>南方科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>89.38</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>007341</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>南方科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>89.38</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>161620</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>融通核心价值混合（QDII）</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>71.69</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>6.45</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009318</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>南方成长先锋混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>90.42</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009319</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>南方成长先锋混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>90.42</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1029,7 +1229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,15 +1250,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002332</t>
+          <t>009318</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信沪港深股票A</t>
+          <t>南方成长先锋混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>145.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.3675</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002333</t>
+          <t>900010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信沪港深股票C</t>
+          <t>中信卓越成长两年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>140.59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.7202</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501099</t>
+          <t>900090</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>平安科技创新3年封闭运作灵活配置混合型</t>
+          <t>中信卓越成长两年持有期混合B</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.80</t>
+          <t>103.89</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.9659</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001900</t>
+          <t>009319</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>诺安精选价值混合</t>
+          <t>南方成长先锋混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>85.58</t>
+          <t>25.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2888</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1182,25 +1432,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004332</t>
+          <t>005504</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>恒生前海沪港深新兴产业精选混合</t>
+          <t>汇添富沪港深大盘价值混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.13</t>
+          <t>14.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1026</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005197</t>
+          <t>506000</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>工银瑞信沪港深精选灵活配置混合A</t>
+          <t>南方科创板 3 年定期开放混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.82</t>
+          <t>26.92</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>83.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7888</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1238,25 +1508,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005198</t>
+          <t>002332</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>工银瑞信沪港深精选灵活配置混合C</t>
+          <t>汇丰晋信沪港深股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.82</t>
+          <t>21.54</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7302</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005504</t>
+          <t>900100</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇添富沪港深大盘价值混合</t>
+          <t>中信卓越成长两年持有期混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.55</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.87</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3781</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009318</t>
+          <t>005197</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>南方成长先锋混合A</t>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>83.93</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3379</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009319</t>
+          <t>501099</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>南方成长先锋混合C</t>
+          <t>平安科技创新3年封闭运作灵活配置混合型</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>83.93</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006205</t>
+          <t>167506</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.54</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8.81</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006923</t>
+          <t>006205</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>前海开源沪港深非周期性行业股票A</t>
+          <t>汇添富沪港深优势精选定期开放混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006924</t>
+          <t>005198</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>前海开源沪港深非周期性行业股票C</t>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>506000</t>
+          <t>161620</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>南方科创板 3 年定期开放混合</t>
+          <t>融通核心价值混合（QDII）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>83.03</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>71.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1472,15 +1822,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>89.66</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>3.79</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>161620</t>
+          <t>004332</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>融通核心价值混合（QDII）</t>
+          <t>恒生前海沪港深新兴产业精选混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>71.45</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>6</v>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>167506</t>
+          <t>002333</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+          <t>汇丰晋信沪港深股票C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>167507</t>
+          <t>006923</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+          <t>前海开源沪港深非周期性行业股票A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>900010</t>
+          <t>167507</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中信卓越成长两年持有期混合A</t>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>6</v>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>900090</t>
+          <t>006924</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中信卓越成长两年持有期混合B</t>
+          <t>前海开源沪港深非周期性行业股票C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>6</v>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>900100</t>
+          <t>001900</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中信卓越成长两年持有期混合C</t>
+          <t>诺安精选价值混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>6</v>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00285-比亚迪电子.xlsx
+++ b/数据整理/stocks/港股/00285-比亚迪电子.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2075,4 +2076,554 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.7625</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>106.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.5522</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4159</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9104</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>67.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8082</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7839</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5006</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00285-比亚迪电子.xlsx
+++ b/数据整理/stocks/港股/00285-比亚迪电子.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2626,4 +2627,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7931</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6453</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5466</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00285-比亚迪电子.xlsx
+++ b/数据整理/stocks/港股/00285-比亚迪电子.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2873,4 +2874,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00285-比亚迪电子.xlsx
+++ b/数据整理/stocks/港股/00285-比亚迪电子.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2882,7 +2883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2893,17 +2894,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2913,14 +2934,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.08</v>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8180</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2929,14 +2972,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20.02</v>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4606</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2945,14 +3010,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>24.28</v>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2917</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2961,13 +3048,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>63.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>19</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>17.62</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00285-比亚迪电子.xlsx
+++ b/数据整理/stocks/港股/00285-比亚迪电子.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3167,7 +3168,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3178,17 +3179,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3198,14 +3219,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.65</v>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0372</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3214,14 +3257,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.08</v>
+          <t>006058</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3230,14 +3295,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20.02</v>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3246,14 +3333,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>21</v>
-      </c>
-      <c r="D5" t="n">
-        <v>24.28</v>
+          <t>501200</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3262,13 +3371,431 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004321</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源沪港深强国产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>48.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015390</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>24.28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>19</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>17.62</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00285-比亚迪电子.xlsx
+++ b/数据整理/stocks/港股/00285-比亚迪电子.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,37 +467,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -507,36 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009318</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方成长先锋混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>220.33</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.42</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>10.3114</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.78</v>
       </c>
     </row>
     <row r="3">
@@ -545,36 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005794</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银华心怡灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>38.85</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.16</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.9503</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.65</v>
       </c>
     </row>
     <row r="4">
@@ -583,36 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009319</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方成长先锋混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>25.37</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.42</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.1873</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.08</v>
       </c>
     </row>
     <row r="5">
@@ -621,36 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002332</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇丰晋信沪港深股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>14.55</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.43</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.9356</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.02</v>
       </c>
     </row>
     <row r="6">
@@ -659,36 +551,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005504</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富沪港深大盘价值混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>11.34</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.36</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.16</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.9253</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>24.28</v>
       </c>
     </row>
     <row r="7">
@@ -697,530 +567,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010126</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>平安价值成长混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>23.78</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>96.07</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.8299</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007340</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>南方科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>16.94</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.38</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.7962</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007291</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>汇丰晋信港股通双核策略混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.53</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2191</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010127</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>平安价值成长混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>96.07</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1215</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010237</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>安信创新先锋混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>67.81</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0988</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002333</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>汇丰晋信沪港深股票C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.43</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0682</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006205</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>96.70</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>8.57</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0668</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>007341</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>南方科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>89.38</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0301</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>161620</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>融通核心价值混合（QDII）</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>71.69</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>6.45</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0252</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004314</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.60</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0237</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>010238</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>安信创新先锋混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>67.81</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0149</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>004315</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>91.60</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0119</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>004266</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>84.76</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>010754</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>84.76</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D7" t="n">
+        <v>17.62</v>
       </c>
     </row>
   </sheetData>
@@ -1234,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1255,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1285,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009318</t>
+          <t>008188</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方成长先锋混合A</t>
+          <t>前海开源稳健增长三年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>145.03</t>
+          <t>24.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.93</t>
+          <t>88.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>7.3675</t>
+          <t>1.0372</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1323,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>900010</t>
+          <t>006058</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中信卓越成长两年持有期混合A</t>
+          <t>民生加银新兴成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>140.59</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>86.77</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6.7202</t>
+          <t>0.1800</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1361,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>900090</t>
+          <t>011287</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中信卓越成长两年持有期混合B</t>
+          <t>前海开源聚慧三年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>103.89</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>87.19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4.9659</t>
+          <t>0.1332</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1399,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009319</t>
+          <t>501200</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方成长先锋混合C</t>
+          <t>民生加银科技创新 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25.37</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.93</t>
+          <t>86.53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.2888</t>
+          <t>0.1230</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1437,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005504</t>
+          <t>006775</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇添富沪港深大盘价值混合</t>
+          <t>前海开源优质成长混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14.01</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.55</t>
+          <t>87.19</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.87</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.1026</t>
+          <t>0.1186</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1475,32 +829,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>506000</t>
+          <t>001518</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方科创板 3 年定期开放混合</t>
+          <t>万家瑞兴灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26.92</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83.03</t>
+          <t>83.79</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.7888</t>
+          <t>0.0634</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1513,36 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002332</t>
+          <t>006216</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇丰晋信沪港深股票A</t>
+          <t>前海开源价值成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>21.54</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>86.54</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.7302</t>
+          <t>0.0517</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1551,36 +905,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>900100</t>
+          <t>003993</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中信卓越成长两年持有期混合C</t>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>84.70</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3781</t>
+          <t>0.0347</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1589,36 +943,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005197</t>
+          <t>006217</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>工银瑞信沪港深精选灵活配置混合A</t>
+          <t>前海开源价值成长灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.82</t>
+          <t>86.54</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.3379</t>
+          <t>0.0287</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1627,36 +981,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>501099</t>
+          <t>006477</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>平安科技创新3年封闭运作灵活配置混合型</t>
+          <t>中邮沪港深精选混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>91.80</t>
+          <t>90.69</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1191</t>
+          <t>0.0038</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1665,36 +1019,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>167506</t>
+          <t>004321</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+          <t>前海开源沪港深强国产业灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>48.46</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0987</t>
+          <t>0.0033</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1703,377 +1057,33 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006205</t>
+          <t>015390</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
+          <t>万家瑞兴灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.54</t>
+          <t>83.79</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8.81</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0714</t>
-        </is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005198</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>工银瑞信沪港深精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0581</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>161620</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>融通核心价值混合（QDII）</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>71.45</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0544</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007277</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>恒生前海消费升级混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>89.66</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0531</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004332</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>恒生前海沪港深新兴产业精选混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>90.13</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0414</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002333</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>汇丰晋信沪港深股票C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0359</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>006923</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>前海开源沪港深非周期性行业股票A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>89.39</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0281</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>167507</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>安信中证深圳科技创新主题指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0255</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>006924</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>前海开源沪港深非周期性行业股票C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>89.39</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0110</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>001900</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>诺安精选价值混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>85.58</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2088,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2109,7 +1119,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2139,36 +1149,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>900010</t>
+          <t>002332</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中信卓越成长两年持有期混合A</t>
+          <t>汇丰晋信沪港深股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>142.48</t>
+          <t>12.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.20</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>6.57</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>8.7625</t>
+          <t>0.8180</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2177,36 +1187,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>900090</t>
+          <t>007291</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中信卓越成长两年持有期混合B</t>
+          <t>汇丰晋信港股通双核策略混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>106.54</t>
+          <t>7.86</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.20</t>
+          <t>93.75</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6.5522</t>
+          <t>0.4606</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2215,36 +1225,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002332</t>
+          <t>005504</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇丰晋信沪港深股票A</t>
+          <t>汇添富沪港深大盘价值混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.10</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>84.24</t>
+          <t>89.33</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.28</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.4159</t>
+          <t>0.2917</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2253,36 +1263,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005504</t>
+          <t>002333</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富沪港深大盘价值混合</t>
+          <t>汇丰晋信沪港深股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.01</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.58</t>
+          <t>6.57</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.9104</t>
+          <t>0.0473</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2291,32 +1301,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007291</t>
+          <t>006205</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇丰晋信港股通双核策略混合</t>
+          <t>汇添富沪港深优势精选定期开放混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.32</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>67.19</t>
+          <t>94.82</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.8082</t>
+          <t>0.0310</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2329,301 +1339,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005583</t>
+          <t>006477</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达港股通红利灵活配置混合</t>
+          <t>中邮沪港深精选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>15.74</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.00</t>
+          <t>63.43</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.7839</t>
+          <t>0.0024</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>900100</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中信卓越成长两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8.14</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.20</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.5006</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>167506</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>安信中证深圳科技创新主题指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0986</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002333</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇丰晋信沪港深股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>84.24</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>8.28</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0869</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006205</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>7.98</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0710</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>167507</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>安信中证深圳科技创新主题指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0250</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004521</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>85.60</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0049</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004522</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>85.60</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2884,7 +1628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2905,7 +1649,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2935,36 +1679,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002332</t>
+          <t>900010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信沪港深股票A</t>
+          <t>中信卓越成长两年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.45</t>
+          <t>142.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>92.20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8180</t>
+          <t>8.7625</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2973,36 +1717,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007291</t>
+          <t>900090</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信港股通双核策略混合</t>
+          <t>中信卓越成长两年持有期混合B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.86</t>
+          <t>106.54</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>92.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4606</t>
+          <t>6.5522</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3011,36 +1755,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005504</t>
+          <t>002332</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富沪港深大盘价值混合</t>
+          <t>汇丰晋信沪港深股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>17.10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.33</t>
+          <t>84.24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.80</t>
+          <t>8.28</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2917</t>
+          <t>1.4159</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -3049,36 +1793,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002333</t>
+          <t>005504</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇丰晋信沪港深股票C</t>
+          <t>汇添富沪港深大盘价值混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>12.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>91.77</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>7.58</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0473</t>
+          <t>0.9104</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -3087,32 +1831,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006205</t>
+          <t>007291</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
+          <t>汇丰晋信港股通双核策略混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>11.32</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.82</t>
+          <t>67.19</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0310</t>
+          <t>0.8082</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -3125,35 +1869,301 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006477</t>
+          <t>005583</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中邮沪港深精选混合</t>
+          <t>易方达港股通红利灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>15.74</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>63.43</t>
+          <t>91.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0024</t>
+          <t>0.7839</t>
         </is>
       </c>
       <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5006</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3168,7 +2178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3189,7 +2199,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3219,36 +2229,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008188</t>
+          <t>009318</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源稳健增长三年持有期混合</t>
+          <t>南方成长先锋混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.52</t>
+          <t>145.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.05</t>
+          <t>83.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0372</t>
+          <t>7.3675</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3257,36 +2267,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006058</t>
+          <t>900010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>民生加银新兴成长混合</t>
+          <t>中信卓越成长两年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>140.59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.77</t>
+          <t>94.04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1800</t>
+          <t>6.7202</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3295,36 +2305,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011287</t>
+          <t>900090</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源聚慧三年持有期混合</t>
+          <t>中信卓越成长两年持有期混合B</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>103.89</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.19</t>
+          <t>94.04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1332</t>
+          <t>4.9659</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3333,36 +2343,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501200</t>
+          <t>009319</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>民生加银科技创新 3 年封闭运作灵活配置混合</t>
+          <t>南方成长先锋混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>25.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.53</t>
+          <t>83.93</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1230</t>
+          <t>1.2888</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -3371,36 +2381,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006775</t>
+          <t>005504</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源优质成长混合</t>
+          <t>汇添富沪港深大盘价值混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>14.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.19</t>
+          <t>91.55</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1186</t>
+          <t>1.1026</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -3409,32 +2419,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001518</t>
+          <t>506000</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>万家瑞兴灵活配置混合</t>
+          <t>南方科创板 3 年定期开放混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>26.92</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83.79</t>
+          <t>83.03</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0634</t>
+          <t>0.7888</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -3447,36 +2457,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006216</t>
+          <t>002332</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源价值成长灵活配置混合A</t>
+          <t>汇丰晋信沪港深股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>21.54</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>86.54</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0517</t>
+          <t>0.7302</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -3485,36 +2495,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003993</t>
+          <t>900100</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心驱动灵活配置混合</t>
+          <t>中信卓越成长两年持有期混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>84.70</t>
+          <t>94.04</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0347</t>
+          <t>0.3781</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -3523,36 +2533,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006217</t>
+          <t>005197</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>前海开源价值成长灵活配置混合C</t>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>86.54</t>
+          <t>94.82</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0287</t>
+          <t>0.3379</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -3561,36 +2571,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006477</t>
+          <t>501099</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中邮沪港深精选混合</t>
+          <t>平安科技创新3年封闭运作灵活配置混合型</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>90.69</t>
+          <t>91.80</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0038</t>
+          <t>0.1191</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -3599,36 +2609,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004321</t>
+          <t>167506</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>前海开源沪港深强国产业灵活配置混合</t>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>48.46</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0033</t>
+          <t>0.0987</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -3637,33 +2647,377 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>015390</t>
+          <t>006205</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>万家瑞兴灵活配置混合C</t>
+          <t>汇添富沪港深优势精选定期开放混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>83.79</t>
+          <t>94.54</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
       </c>
       <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161620</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>71.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007277</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>恒生前海消费升级混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3678,7 +3032,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3689,17 +3043,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3709,14 +3083,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.78</v>
+          <t>009318</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>220.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.3114</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3725,14 +3121,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.65</v>
+          <t>005794</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9503</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3741,14 +3159,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.08</v>
+          <t>009319</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1873</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3757,14 +3197,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20.02</v>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9356</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -3773,14 +3235,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>21</v>
-      </c>
-      <c r="D6" t="n">
-        <v>24.28</v>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9253</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -3789,14 +3273,530 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>19</v>
-      </c>
-      <c r="D7" t="n">
-        <v>17.62</v>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8299</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007340</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7962</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2191</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>67.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>96.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007341</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161620</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>71.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>67.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00285-比亚迪电子.xlsx
+++ b/数据整理/stocks/港股/00285-比亚迪电子.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>1.78</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>2.08</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>20.02</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>24.28</v>
+        <v>20.02</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>21</v>
+      </c>
+      <c r="D7" t="n">
+        <v>24.28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>19</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>17.62</v>
       </c>
     </row>
@@ -583,6 +600,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4054</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012884</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF) C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4054</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2774</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2721</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004321</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深强国产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1092,7 +1507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1376,7 +1791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1622,7 +2037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2172,7 +2587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3026,7 +3441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00285-比亚迪电子.xlsx
+++ b/数据整理/stocks/港股/00285-比亚迪电子.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>1.46</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>1.78</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>2.08</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>20.02</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>24.28</v>
+        <v>20.02</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>21</v>
+      </c>
+      <c r="D8" t="n">
+        <v>24.28</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>19</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>17.62</v>
       </c>
     </row>
@@ -600,6 +617,708 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5340</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7224</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6925</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6925</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3986</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2016</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1975</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007182</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家沪港深蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>72.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007183</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家沪港深蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013182</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>69.28</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013181</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>69.28</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -997,7 +1716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1507,7 +2226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1791,7 +2510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2037,7 +2756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2587,7 +3306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3441,7 +4160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
